--- a/risultato/FASCIA B - BLUMARRONE-MARRONE.xlsx
+++ b/risultato/FASCIA B - BLUMARRONE-MARRONE.xlsx
@@ -547,7 +547,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>

--- a/risultato/FASCIA B - BLUMARRONE-MARRONE.xlsx
+++ b/risultato/FASCIA B - BLUMARRONE-MARRONE.xlsx
@@ -547,7 +547,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
